--- a/www.eia.gov/electricity/monthly/xls/table_es1b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_es1b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Net Generation and Consumption of Fuels for January through October</t>
+    <t>Net Generation and Consumption of Fuels for January through November</t>
   </si>
   <si>
     <t/>
@@ -68,10 +68,10 @@
     <t>Facility Type</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -167,7 +167,7 @@
     <t>Consumption of Fossil Fuels for Electricity Generation and Useful Thermal Output</t>
   </si>
   <si>
-    <t>Sales, Revenue, and Average Price of Electricity to Ultimate Customers for January through October</t>
+    <t>Sales, Revenue, and Average Price of Electricity to Ultimate Customers for January through November</t>
   </si>
   <si>
     <t>Total U.S. Electric Power Industry</t>
@@ -1375,37 +1375,37 @@
         <v>19</v>
       </c>
       <c r="C8" s="12">
-        <v>1034120</v>
+        <v>1121120</v>
       </c>
       <c r="D8" s="12">
-        <v>1175676</v>
+        <v>1262903</v>
       </c>
       <c r="E8" s="13">
-        <v>-0.12</v>
+        <v>-0.112</v>
       </c>
       <c r="F8" s="12">
-        <v>770910</v>
+        <v>835856</v>
       </c>
       <c r="G8" s="12">
-        <v>865636</v>
+        <v>929827</v>
       </c>
       <c r="H8" s="12">
-        <v>254908</v>
+        <v>276328</v>
       </c>
       <c r="I8" s="12">
-        <v>300374</v>
+        <v>322545</v>
       </c>
       <c r="J8" s="12">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="K8" s="12">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="L8" s="12">
-        <v>7950</v>
+        <v>8544</v>
       </c>
       <c r="M8" s="12">
-        <v>9234</v>
+        <v>10064</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
@@ -1422,37 +1422,37 @@
         <v>19</v>
       </c>
       <c r="C9" s="12">
-        <v>10470</v>
+        <v>11528</v>
       </c>
       <c r="D9" s="12">
-        <v>15429</v>
+        <v>16424</v>
       </c>
       <c r="E9" s="13">
-        <v>-0.32100000000000001</v>
+        <v>-0.29799999999999999</v>
       </c>
       <c r="F9" s="12">
-        <v>7240</v>
+        <v>7913</v>
       </c>
       <c r="G9" s="12">
-        <v>9018</v>
+        <v>9736</v>
       </c>
       <c r="H9" s="12">
-        <v>2722</v>
+        <v>3060</v>
       </c>
       <c r="I9" s="12">
-        <v>5751</v>
+        <v>5987</v>
       </c>
       <c r="J9" s="12">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K9" s="12">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L9" s="12">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="M9" s="12">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
@@ -1469,37 +1469,37 @@
         <v>19</v>
       </c>
       <c r="C10" s="12">
-        <v>9585</v>
+        <v>10366</v>
       </c>
       <c r="D10" s="12">
-        <v>9413</v>
+        <v>10128</v>
       </c>
       <c r="E10" s="13">
-        <v>1.7999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F10" s="12">
-        <v>7618</v>
+        <v>8214</v>
       </c>
       <c r="G10" s="12">
-        <v>7184</v>
+        <v>7674</v>
       </c>
       <c r="H10" s="12">
-        <v>1161</v>
+        <v>1276</v>
       </c>
       <c r="I10" s="12">
-        <v>1394</v>
+        <v>1533</v>
       </c>
       <c r="J10" s="12">
         <v>4</v>
       </c>
       <c r="K10" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="12">
-        <v>802</v>
+        <v>871</v>
       </c>
       <c r="M10" s="12">
-        <v>827</v>
+        <v>912</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
@@ -1516,37 +1516,37 @@
         <v>19</v>
       </c>
       <c r="C11" s="12">
-        <v>1189871</v>
+        <v>1284457</v>
       </c>
       <c r="D11" s="12">
-        <v>1121469</v>
+        <v>1223705</v>
       </c>
       <c r="E11" s="13">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F11" s="12">
-        <v>564679</v>
+        <v>608453</v>
       </c>
       <c r="G11" s="12">
-        <v>517881</v>
+        <v>565471</v>
       </c>
       <c r="H11" s="12">
-        <v>542118</v>
+        <v>584558</v>
       </c>
       <c r="I11" s="12">
-        <v>524621</v>
+        <v>571163</v>
       </c>
       <c r="J11" s="12">
-        <v>6557</v>
+        <v>7148</v>
       </c>
       <c r="K11" s="12">
-        <v>6270</v>
+        <v>6853</v>
       </c>
       <c r="L11" s="12">
-        <v>76516</v>
+        <v>84298</v>
       </c>
       <c r="M11" s="12">
-        <v>72697</v>
+        <v>80218</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -1563,25 +1563,25 @@
         <v>19</v>
       </c>
       <c r="C12" s="12">
-        <v>10986</v>
+        <v>11987</v>
       </c>
       <c r="D12" s="12">
-        <v>11105</v>
+        <v>12007</v>
       </c>
       <c r="E12" s="13">
-        <v>-1.0999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="F12" s="12">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G12" s="12">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H12" s="12">
-        <v>3259</v>
+        <v>3598</v>
       </c>
       <c r="I12" s="12">
-        <v>2981</v>
+        <v>3214</v>
       </c>
       <c r="J12" s="12">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <v>7608</v>
+        <v>8248</v>
       </c>
       <c r="M12" s="12">
-        <v>7928</v>
+        <v>8595</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -1610,25 +1610,25 @@
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <v>668454</v>
+        <v>733632</v>
       </c>
       <c r="D13" s="12">
-        <v>667280</v>
+        <v>727544</v>
       </c>
       <c r="E13" s="13">
-        <v>2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F13" s="12">
-        <v>354046</v>
+        <v>387127</v>
       </c>
       <c r="G13" s="12">
-        <v>349932</v>
+        <v>380683</v>
       </c>
       <c r="H13" s="12">
-        <v>314408</v>
+        <v>346505</v>
       </c>
       <c r="I13" s="12">
-        <v>317349</v>
+        <v>346861</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
@@ -1657,37 +1657,37 @@
         <v>19</v>
       </c>
       <c r="C14" s="12">
-        <v>224406</v>
+        <v>243220</v>
       </c>
       <c r="D14" s="12">
-        <v>206577</v>
+        <v>225915</v>
       </c>
       <c r="E14" s="13">
-        <v>8.5999999999999993E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F14" s="12">
-        <v>207867</v>
+        <v>225608</v>
       </c>
       <c r="G14" s="12">
-        <v>190443</v>
+        <v>208344</v>
       </c>
       <c r="H14" s="12">
-        <v>15378</v>
+        <v>16381</v>
       </c>
       <c r="I14" s="12">
-        <v>14974</v>
+        <v>16275</v>
       </c>
       <c r="J14" s="12">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L14" s="12">
-        <v>1109</v>
+        <v>1177</v>
       </c>
       <c r="M14" s="12">
-        <v>1132</v>
+        <v>1265</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -1704,37 +1704,37 @@
         <v>19</v>
       </c>
       <c r="C15" s="12">
-        <v>281548</v>
+        <v>310064</v>
       </c>
       <c r="D15" s="12">
-        <v>238494</v>
+        <v>266559</v>
       </c>
       <c r="E15" s="13">
-        <v>0.18099999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F15" s="12">
-        <v>34501</v>
+        <v>38277</v>
       </c>
       <c r="G15" s="12">
-        <v>30035</v>
+        <v>33811</v>
       </c>
       <c r="H15" s="12">
-        <v>220962</v>
+        <v>243087</v>
       </c>
       <c r="I15" s="12">
-        <v>181974</v>
+        <v>203619</v>
       </c>
       <c r="J15" s="12">
-        <v>2686</v>
+        <v>2921</v>
       </c>
       <c r="K15" s="12">
-        <v>2691</v>
+        <v>2954</v>
       </c>
       <c r="L15" s="12">
-        <v>23398</v>
+        <v>25779</v>
       </c>
       <c r="M15" s="12">
-        <v>23794</v>
+        <v>26175</v>
       </c>
       <c r="N15" s="12">
         <v>0</v>
@@ -1751,37 +1751,37 @@
         <v>19</v>
       </c>
       <c r="C16" s="12">
-        <v>184119</v>
+        <v>203453</v>
       </c>
       <c r="D16" s="12">
-        <v>150938</v>
+        <v>170620</v>
       </c>
       <c r="E16" s="13">
-        <v>0.22</v>
+        <v>0.192</v>
       </c>
       <c r="F16" s="12">
-        <v>27995</v>
+        <v>31209</v>
       </c>
       <c r="G16" s="12">
-        <v>24092</v>
+        <v>27308</v>
       </c>
       <c r="H16" s="12">
-        <v>155944</v>
+        <v>172047</v>
       </c>
       <c r="I16" s="12">
-        <v>126712</v>
+        <v>143159</v>
       </c>
       <c r="J16" s="12">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K16" s="12">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L16" s="12">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M16" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>
@@ -1798,37 +1798,37 @@
         <v>19</v>
       </c>
       <c r="C17" s="12">
-        <v>31190</v>
+        <v>33832</v>
       </c>
       <c r="D17" s="12">
-        <v>21593</v>
+        <v>23323</v>
       </c>
       <c r="E17" s="13">
-        <v>0.44400000000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="F17" s="12">
-        <v>1888</v>
+        <v>2033</v>
       </c>
       <c r="G17" s="12">
-        <v>1293</v>
+        <v>1396</v>
       </c>
       <c r="H17" s="12">
-        <v>28779</v>
+        <v>31237</v>
       </c>
       <c r="I17" s="12">
-        <v>19915</v>
+        <v>21514</v>
       </c>
       <c r="J17" s="12">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="K17" s="12">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="L17" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M17" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N17" s="12">
         <v>0</v>
@@ -1845,37 +1845,37 @@
         <v>19</v>
       </c>
       <c r="C18" s="12">
-        <v>33585</v>
+        <v>36842</v>
       </c>
       <c r="D18" s="12">
-        <v>34923</v>
+        <v>38341</v>
       </c>
       <c r="E18" s="13">
-        <v>-3.7999999999999999E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="F18" s="12">
-        <v>2500</v>
+        <v>2697</v>
       </c>
       <c r="G18" s="12">
-        <v>2516</v>
+        <v>2759</v>
       </c>
       <c r="H18" s="12">
-        <v>8711</v>
+        <v>9487</v>
       </c>
       <c r="I18" s="12">
-        <v>9636</v>
+        <v>10550</v>
       </c>
       <c r="J18" s="12">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K18" s="12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L18" s="12">
-        <v>22312</v>
+        <v>24593</v>
       </c>
       <c r="M18" s="12">
-        <v>22728</v>
+        <v>24987</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
@@ -1892,37 +1892,37 @@
         <v>19</v>
       </c>
       <c r="C19" s="12">
-        <v>18364</v>
+        <v>20140</v>
       </c>
       <c r="D19" s="12">
-        <v>17832</v>
+        <v>19734</v>
       </c>
       <c r="E19" s="13">
-        <v>0.03</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F19" s="12">
-        <v>1216</v>
+        <v>1341</v>
       </c>
       <c r="G19" s="12">
-        <v>1236</v>
+        <v>1357</v>
       </c>
       <c r="H19" s="12">
-        <v>14141</v>
+        <v>15517</v>
       </c>
       <c r="I19" s="12">
-        <v>13402</v>
+        <v>14846</v>
       </c>
       <c r="J19" s="12">
-        <v>2010</v>
+        <v>2193</v>
       </c>
       <c r="K19" s="12">
-        <v>2188</v>
+        <v>2411</v>
       </c>
       <c r="L19" s="12">
-        <v>997</v>
+        <v>1089</v>
       </c>
       <c r="M19" s="12">
-        <v>1006</v>
+        <v>1121</v>
       </c>
       <c r="N19" s="12">
         <v>0</v>
@@ -1939,25 +1939,25 @@
         <v>19</v>
       </c>
       <c r="C20" s="12">
-        <v>14290</v>
+        <v>15797</v>
       </c>
       <c r="D20" s="12">
-        <v>13207</v>
+        <v>14541</v>
       </c>
       <c r="E20" s="13">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F20" s="12">
-        <v>903</v>
+        <v>997</v>
       </c>
       <c r="G20" s="12">
-        <v>898</v>
+        <v>991</v>
       </c>
       <c r="H20" s="12">
-        <v>13387</v>
+        <v>14800</v>
       </c>
       <c r="I20" s="12">
-        <v>12309</v>
+        <v>13549</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
@@ -1986,25 +1986,25 @@
         <v>19</v>
       </c>
       <c r="C21" s="12">
-        <v>-5326</v>
+        <v>-5933</v>
       </c>
       <c r="D21" s="12">
-        <v>-4526</v>
+        <v>-4811</v>
       </c>
       <c r="E21" s="13">
-        <v>0.17699999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="F21" s="12">
-        <v>-4450</v>
+        <v>-4972</v>
       </c>
       <c r="G21" s="12">
-        <v>-3677</v>
+        <v>-3895</v>
       </c>
       <c r="H21" s="12">
-        <v>-876</v>
+        <v>-961</v>
       </c>
       <c r="I21" s="12">
-        <v>-849</v>
+        <v>-916</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
@@ -2033,37 +2033,37 @@
         <v>19</v>
       </c>
       <c r="C22" s="12">
-        <v>11458</v>
+        <v>12550</v>
       </c>
       <c r="D22" s="12">
-        <v>11603</v>
+        <v>12800</v>
       </c>
       <c r="E22" s="13">
-        <v>-1.2E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="F22" s="12">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G22" s="12">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="H22" s="12">
-        <v>5918</v>
+        <v>6494</v>
       </c>
       <c r="I22" s="12">
-        <v>5640</v>
+        <v>6231</v>
       </c>
       <c r="J22" s="12">
-        <v>908</v>
+        <v>993</v>
       </c>
       <c r="K22" s="12">
-        <v>970</v>
+        <v>1072</v>
       </c>
       <c r="L22" s="12">
-        <v>4369</v>
+        <v>4776</v>
       </c>
       <c r="M22" s="12">
-        <v>4531</v>
+        <v>4988</v>
       </c>
       <c r="N22" s="12">
         <v>0</v>
@@ -2080,37 +2080,37 @@
         <v>19</v>
       </c>
       <c r="C23" s="12">
-        <v>3435570</v>
+        <v>3732992</v>
       </c>
       <c r="D23" s="12">
-        <v>3452520</v>
+        <v>3753174</v>
       </c>
       <c r="E23" s="13">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F23" s="12">
-        <v>1942794</v>
+        <v>2106905</v>
       </c>
       <c r="G23" s="12">
-        <v>1967110</v>
+        <v>2132358</v>
       </c>
       <c r="H23" s="12">
-        <v>1359958</v>
+        <v>1480326</v>
       </c>
       <c r="I23" s="12">
-        <v>1354209</v>
+        <v>1476513</v>
       </c>
       <c r="J23" s="12">
-        <v>10647</v>
+        <v>11608</v>
       </c>
       <c r="K23" s="12">
-        <v>10570</v>
+        <v>11562</v>
       </c>
       <c r="L23" s="12">
-        <v>122170</v>
+        <v>134153</v>
       </c>
       <c r="M23" s="12">
-        <v>120632</v>
+        <v>132742</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>36</v>
       </c>
       <c r="C25" s="12">
-        <v>16974</v>
+        <v>18281</v>
       </c>
       <c r="D25" s="12">
-        <v>12243</v>
+        <v>13225</v>
       </c>
       <c r="E25" s="13">
-        <v>0.38600000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="F25" s="12">
         <v>0</v>
@@ -2195,22 +2195,22 @@
         <v>0</v>
       </c>
       <c r="J25" s="12">
-        <v>6243</v>
+        <v>6710</v>
       </c>
       <c r="K25" s="12">
-        <v>4973</v>
+        <v>5340</v>
       </c>
       <c r="L25" s="12">
-        <v>1596</v>
+        <v>1720</v>
       </c>
       <c r="M25" s="12">
-        <v>1258</v>
+        <v>1358</v>
       </c>
       <c r="N25" s="12">
-        <v>9134</v>
+        <v>9851</v>
       </c>
       <c r="O25" s="12">
-        <v>6012</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2221,43 +2221,43 @@
         <v>38</v>
       </c>
       <c r="C26" s="12">
-        <v>45055</v>
+        <v>48820</v>
       </c>
       <c r="D26" s="12">
-        <v>30940</v>
+        <v>33447</v>
       </c>
       <c r="E26" s="13">
-        <v>0.45600000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="F26" s="12">
-        <v>1820</v>
+        <v>1960</v>
       </c>
       <c r="G26" s="12">
-        <v>1193</v>
+        <v>1292</v>
       </c>
       <c r="H26" s="12">
-        <v>25739</v>
+        <v>28017</v>
       </c>
       <c r="I26" s="12">
-        <v>17119</v>
+        <v>18517</v>
       </c>
       <c r="J26" s="12">
-        <v>6740</v>
+        <v>7244</v>
       </c>
       <c r="K26" s="12">
-        <v>5339</v>
+        <v>5733</v>
       </c>
       <c r="L26" s="12">
-        <v>1623</v>
+        <v>1748</v>
       </c>
       <c r="M26" s="12">
-        <v>1276</v>
+        <v>1378</v>
       </c>
       <c r="N26" s="12">
-        <v>9134</v>
+        <v>9851</v>
       </c>
       <c r="O26" s="12">
-        <v>6012</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2268,43 +2268,43 @@
         <v>38</v>
       </c>
       <c r="C27" s="12">
-        <v>48164</v>
+        <v>52113</v>
       </c>
       <c r="D27" s="12">
-        <v>33837</v>
+        <v>36548</v>
       </c>
       <c r="E27" s="13">
-        <v>0.42299999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="F27" s="12">
-        <v>1888</v>
+        <v>2033</v>
       </c>
       <c r="G27" s="12">
-        <v>1293</v>
+        <v>1396</v>
       </c>
       <c r="H27" s="12">
-        <v>28779</v>
+        <v>31237</v>
       </c>
       <c r="I27" s="12">
-        <v>19915</v>
+        <v>21514</v>
       </c>
       <c r="J27" s="12">
-        <v>6740</v>
+        <v>7244</v>
       </c>
       <c r="K27" s="12">
-        <v>5339</v>
+        <v>5733</v>
       </c>
       <c r="L27" s="12">
-        <v>1623</v>
+        <v>1748</v>
       </c>
       <c r="M27" s="12">
-        <v>1276</v>
+        <v>1378</v>
       </c>
       <c r="N27" s="12">
-        <v>9134</v>
+        <v>9851</v>
       </c>
       <c r="O27" s="12">
-        <v>6012</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2334,37 +2334,37 @@
         <v>19</v>
       </c>
       <c r="C29" s="12">
-        <v>564967</v>
+        <v>613093</v>
       </c>
       <c r="D29" s="12">
-        <v>640427</v>
+        <v>689370</v>
       </c>
       <c r="E29" s="13">
-        <v>-0.11799999999999999</v>
+        <v>-0.111</v>
       </c>
       <c r="F29" s="12">
-        <v>415691</v>
+        <v>450965</v>
       </c>
       <c r="G29" s="12">
-        <v>466201</v>
+        <v>501628</v>
       </c>
       <c r="H29" s="12">
-        <v>146240</v>
+        <v>158865</v>
       </c>
       <c r="I29" s="12">
-        <v>170677</v>
+        <v>183886</v>
       </c>
       <c r="J29" s="12">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K29" s="12">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L29" s="12">
-        <v>2915</v>
+        <v>3130</v>
       </c>
       <c r="M29" s="12">
-        <v>3412</v>
+        <v>3707</v>
       </c>
       <c r="N29" s="12">
         <v>0</v>
@@ -2381,37 +2381,37 @@
         <v>19</v>
       </c>
       <c r="C30" s="12">
-        <v>17755</v>
+        <v>19315</v>
       </c>
       <c r="D30" s="12">
-        <v>25625</v>
+        <v>27344</v>
       </c>
       <c r="E30" s="13">
-        <v>-0.307</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="F30" s="12">
-        <v>13118</v>
+        <v>14316</v>
       </c>
       <c r="G30" s="12">
-        <v>16037</v>
+        <v>17385</v>
       </c>
       <c r="H30" s="12">
-        <v>4057</v>
+        <v>4363</v>
       </c>
       <c r="I30" s="12">
-        <v>8795</v>
+        <v>9119</v>
       </c>
       <c r="J30" s="12">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K30" s="12">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L30" s="12">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="M30" s="12">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="N30" s="12">
         <v>0</v>
@@ -2428,25 +2428,25 @@
         <v>19</v>
       </c>
       <c r="C31" s="12">
-        <v>3635</v>
+        <v>3939</v>
       </c>
       <c r="D31" s="12">
-        <v>3508</v>
+        <v>3768</v>
       </c>
       <c r="E31" s="13">
-        <v>3.5999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F31" s="12">
-        <v>2931</v>
+        <v>3170</v>
       </c>
       <c r="G31" s="12">
-        <v>2710</v>
+        <v>2888</v>
       </c>
       <c r="H31" s="12">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="I31" s="12">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="J31" s="12">
         <v>1</v>
@@ -2455,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="L31" s="12">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M31" s="12">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="N31" s="12">
         <v>0</v>
@@ -2475,37 +2475,37 @@
         <v>19</v>
       </c>
       <c r="C32" s="12">
-        <v>8998629</v>
+        <v>9698844</v>
       </c>
       <c r="D32" s="12">
-        <v>8442020</v>
+        <v>9209356</v>
       </c>
       <c r="E32" s="13">
-        <v>6.6000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F32" s="12">
-        <v>4370283</v>
+        <v>4702672</v>
       </c>
       <c r="G32" s="12">
-        <v>3985387</v>
+        <v>4351897</v>
       </c>
       <c r="H32" s="12">
-        <v>4036746</v>
+        <v>4344715</v>
       </c>
       <c r="I32" s="12">
-        <v>3882936</v>
+        <v>4225560</v>
       </c>
       <c r="J32" s="12">
-        <v>57824</v>
+        <v>63156</v>
       </c>
       <c r="K32" s="12">
-        <v>58874</v>
+        <v>64344</v>
       </c>
       <c r="L32" s="12">
-        <v>533775</v>
+        <v>588301</v>
       </c>
       <c r="M32" s="12">
-        <v>514823</v>
+        <v>567555</v>
       </c>
       <c r="N32" s="12">
         <v>0</v>
@@ -2541,37 +2541,37 @@
         <v>19</v>
       </c>
       <c r="C34" s="12">
-        <v>11980</v>
+        <v>13016</v>
       </c>
       <c r="D34" s="12">
-        <v>13948</v>
+        <v>15269</v>
       </c>
       <c r="E34" s="13">
-        <v>-0.14099999999999999</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="F34" s="12">
-        <v>835</v>
+        <v>919</v>
       </c>
       <c r="G34" s="12">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="H34" s="12">
-        <v>1474</v>
+        <v>1594</v>
       </c>
       <c r="I34" s="12">
-        <v>1684</v>
+        <v>1829</v>
       </c>
       <c r="J34" s="12">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="K34" s="12">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="L34" s="12">
-        <v>9232</v>
+        <v>10016</v>
       </c>
       <c r="M34" s="12">
-        <v>10897</v>
+        <v>11927</v>
       </c>
       <c r="N34" s="12">
         <v>0</v>
@@ -2588,37 +2588,37 @@
         <v>19</v>
       </c>
       <c r="C35" s="12">
-        <v>2123</v>
+        <v>2307</v>
       </c>
       <c r="D35" s="12">
-        <v>2729</v>
+        <v>2932</v>
       </c>
       <c r="E35" s="13">
-        <v>-0.222</v>
+        <v>-0.21299999999999999</v>
       </c>
       <c r="F35" s="12">
         <v>17</v>
       </c>
       <c r="G35" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H35" s="12">
-        <v>840</v>
+        <v>919</v>
       </c>
       <c r="I35" s="12">
-        <v>980</v>
+        <v>1065</v>
       </c>
       <c r="J35" s="12">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K35" s="12">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L35" s="12">
-        <v>1161</v>
+        <v>1259</v>
       </c>
       <c r="M35" s="12">
-        <v>1419</v>
+        <v>1529</v>
       </c>
       <c r="N35" s="12">
         <v>0</v>
@@ -2635,37 +2635,37 @@
         <v>19</v>
       </c>
       <c r="C36" s="12">
-        <v>846</v>
+        <v>923</v>
       </c>
       <c r="D36" s="12">
-        <v>952</v>
+        <v>1058</v>
       </c>
       <c r="E36" s="13">
-        <v>-0.112</v>
+        <v>-0.128</v>
       </c>
       <c r="F36" s="12">
         <v>2</v>
       </c>
       <c r="G36" s="12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H36" s="12">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I36" s="12">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J36" s="12">
         <v>7</v>
       </c>
       <c r="K36" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L36" s="12">
-        <v>751</v>
+        <v>818</v>
       </c>
       <c r="M36" s="12">
-        <v>844</v>
+        <v>935</v>
       </c>
       <c r="N36" s="12">
         <v>0</v>
@@ -2682,37 +2682,37 @@
         <v>19</v>
       </c>
       <c r="C37" s="12">
-        <v>798983</v>
+        <v>876439</v>
       </c>
       <c r="D37" s="12">
-        <v>776046</v>
+        <v>853730</v>
       </c>
       <c r="E37" s="13">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F37" s="12">
-        <v>9188</v>
+        <v>10063</v>
       </c>
       <c r="G37" s="12">
-        <v>6604</v>
+        <v>7317</v>
       </c>
       <c r="H37" s="12">
-        <v>240300</v>
+        <v>262056</v>
       </c>
       <c r="I37" s="12">
-        <v>237424</v>
+        <v>259989</v>
       </c>
       <c r="J37" s="12">
-        <v>40054</v>
+        <v>43852</v>
       </c>
       <c r="K37" s="12">
-        <v>38421</v>
+        <v>42266</v>
       </c>
       <c r="L37" s="12">
-        <v>509440</v>
+        <v>560468</v>
       </c>
       <c r="M37" s="12">
-        <v>493596</v>
+        <v>544157</v>
       </c>
       <c r="N37" s="12">
         <v>0</v>
@@ -2748,37 +2748,37 @@
         <v>19</v>
       </c>
       <c r="C39" s="12">
-        <v>576947</v>
+        <v>626108</v>
       </c>
       <c r="D39" s="12">
-        <v>654375</v>
+        <v>704639</v>
       </c>
       <c r="E39" s="13">
-        <v>-0.11799999999999999</v>
+        <v>-0.111</v>
       </c>
       <c r="F39" s="12">
-        <v>416526</v>
+        <v>451884</v>
       </c>
       <c r="G39" s="12">
-        <v>467039</v>
+        <v>502565</v>
       </c>
       <c r="H39" s="12">
-        <v>147714</v>
+        <v>160458</v>
       </c>
       <c r="I39" s="12">
-        <v>172361</v>
+        <v>185714</v>
       </c>
       <c r="J39" s="12">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="K39" s="12">
-        <v>667</v>
+        <v>726</v>
       </c>
       <c r="L39" s="12">
-        <v>12147</v>
+        <v>13145</v>
       </c>
       <c r="M39" s="12">
-        <v>14309</v>
+        <v>15634</v>
       </c>
       <c r="N39" s="12">
         <v>0</v>
@@ -2795,37 +2795,37 @@
         <v>19</v>
       </c>
       <c r="C40" s="12">
-        <v>19878</v>
+        <v>21622</v>
       </c>
       <c r="D40" s="12">
-        <v>28354</v>
+        <v>30277</v>
       </c>
       <c r="E40" s="13">
-        <v>-0.29899999999999999</v>
+        <v>-0.28599999999999998</v>
       </c>
       <c r="F40" s="12">
-        <v>13135</v>
+        <v>14333</v>
       </c>
       <c r="G40" s="12">
-        <v>16097</v>
+        <v>17446</v>
       </c>
       <c r="H40" s="12">
-        <v>4898</v>
+        <v>5281</v>
       </c>
       <c r="I40" s="12">
-        <v>9775</v>
+        <v>10184</v>
       </c>
       <c r="J40" s="12">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K40" s="12">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="L40" s="12">
-        <v>1632</v>
+        <v>1776</v>
       </c>
       <c r="M40" s="12">
-        <v>1978</v>
+        <v>2128</v>
       </c>
       <c r="N40" s="12">
         <v>0</v>
@@ -2842,37 +2842,37 @@
         <v>19</v>
       </c>
       <c r="C41" s="12">
-        <v>4481</v>
+        <v>4862</v>
       </c>
       <c r="D41" s="12">
-        <v>4461</v>
+        <v>4826</v>
       </c>
       <c r="E41" s="13">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F41" s="12">
-        <v>2932</v>
+        <v>3172</v>
       </c>
       <c r="G41" s="12">
-        <v>2716</v>
+        <v>2896</v>
       </c>
       <c r="H41" s="12">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="I41" s="12">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="J41" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K41" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41" s="12">
-        <v>957</v>
+        <v>1042</v>
       </c>
       <c r="M41" s="12">
-        <v>1059</v>
+        <v>1171</v>
       </c>
       <c r="N41" s="12">
         <v>0</v>
@@ -2889,37 +2889,37 @@
         <v>19</v>
       </c>
       <c r="C42" s="12">
-        <v>9797611</v>
+        <v>10575283</v>
       </c>
       <c r="D42" s="12">
-        <v>9218066</v>
+        <v>10063086</v>
       </c>
       <c r="E42" s="13">
-        <v>6.3E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F42" s="12">
-        <v>4379471</v>
+        <v>4712735</v>
       </c>
       <c r="G42" s="12">
-        <v>3991992</v>
+        <v>4359214</v>
       </c>
       <c r="H42" s="12">
-        <v>4277046</v>
+        <v>4606771</v>
       </c>
       <c r="I42" s="12">
-        <v>4120359</v>
+        <v>4485550</v>
       </c>
       <c r="J42" s="12">
-        <v>97878</v>
+        <v>107008</v>
       </c>
       <c r="K42" s="12">
-        <v>97296</v>
+        <v>106611</v>
       </c>
       <c r="L42" s="12">
-        <v>1043215</v>
+        <v>1148769</v>
       </c>
       <c r="M42" s="12">
-        <v>1008420</v>
+        <v>1111712</v>
       </c>
       <c r="N42" s="12">
         <v>0</v>
@@ -3053,31 +3053,31 @@
         <v>8</v>
       </c>
       <c r="B49" s="12">
-        <v>1193784</v>
+        <v>1286581</v>
       </c>
       <c r="C49" s="12">
-        <v>1199748</v>
+        <v>1292426</v>
       </c>
       <c r="D49" s="13">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E49" s="12">
-        <v>150007</v>
+        <v>161836</v>
       </c>
       <c r="F49" s="12">
-        <v>152089</v>
+        <v>163864</v>
       </c>
       <c r="G49" s="13">
-        <v>-1.4E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="H49" s="15">
-        <v>12.57</v>
+        <v>12.58</v>
       </c>
       <c r="I49" s="15">
         <v>12.68</v>
       </c>
       <c r="J49" s="13">
-        <v>-8.9999999999999993E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3085,31 +3085,31 @@
         <v>6</v>
       </c>
       <c r="B50" s="12">
-        <v>1145708</v>
+        <v>1250159</v>
       </c>
       <c r="C50" s="12">
-        <v>1149782</v>
+        <v>1253922</v>
       </c>
       <c r="D50" s="13">
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E50" s="12">
-        <v>119196</v>
+        <v>129903</v>
       </c>
       <c r="F50" s="12">
-        <v>123234</v>
+        <v>133956</v>
       </c>
       <c r="G50" s="13">
-        <v>-3.3000000000000002E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="H50" s="15">
-        <v>10.4</v>
+        <v>10.39</v>
       </c>
       <c r="I50" s="15">
-        <v>10.72</v>
+        <v>10.68</v>
       </c>
       <c r="J50" s="13">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3117,31 +3117,31 @@
         <v>7</v>
       </c>
       <c r="B51" s="12">
-        <v>786191</v>
+        <v>861283</v>
       </c>
       <c r="C51" s="12">
-        <v>829789</v>
+        <v>908283</v>
       </c>
       <c r="D51" s="13">
-        <v>-5.2999999999999999E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="E51" s="12">
-        <v>53228</v>
+        <v>58213</v>
       </c>
       <c r="F51" s="12">
-        <v>57939</v>
+        <v>63123</v>
       </c>
       <c r="G51" s="13">
-        <v>-8.1000000000000003E-2</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="H51" s="15">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="I51" s="15">
-        <v>6.98</v>
+        <v>6.95</v>
       </c>
       <c r="J51" s="13">
-        <v>-0.03</v>
+        <v>-2.7E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3149,31 +3149,31 @@
         <v>53</v>
       </c>
       <c r="B52" s="12">
-        <v>6253</v>
+        <v>6845</v>
       </c>
       <c r="C52" s="12">
-        <v>6413</v>
+        <v>7017</v>
       </c>
       <c r="D52" s="13">
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E52" s="12">
-        <v>596</v>
+        <v>649</v>
       </c>
       <c r="F52" s="12">
-        <v>652</v>
+        <v>710</v>
       </c>
       <c r="G52" s="13">
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="H52" s="15">
-        <v>9.5299999999999994</v>
+        <v>9.49</v>
       </c>
       <c r="I52" s="15">
-        <v>10.16</v>
+        <v>10.11</v>
       </c>
       <c r="J52" s="13">
-        <v>-6.2E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3181,31 +3181,31 @@
         <v>54</v>
       </c>
       <c r="B53" s="12">
-        <v>3131935</v>
+        <v>3404868</v>
       </c>
       <c r="C53" s="12">
-        <v>3185732</v>
+        <v>3461649</v>
       </c>
       <c r="D53" s="13">
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="E53" s="12">
-        <v>323026</v>
+        <v>350601</v>
       </c>
       <c r="F53" s="12">
-        <v>333913</v>
+        <v>361654</v>
       </c>
       <c r="G53" s="13">
-        <v>-3.3000000000000002E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="H53" s="15">
-        <v>10.31</v>
+        <v>10.3</v>
       </c>
       <c r="I53" s="15">
-        <v>10.48</v>
+        <v>10.45</v>
       </c>
       <c r="J53" s="13">
-        <v>-1.6E-2</v>
+        <v>-1.4E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="182.1" customHeight="1" x14ac:dyDescent="0.25">
